--- a/data/HR1_2/Market Data/HR1_market_data_base_.xlsx
+++ b/data/HR1_2/Market Data/HR1_market_data_base_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567BAB81-8D57-4021-AFC0-7052C12D7F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3134CAB-BEC5-4D95-8F6F-522EA667A0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="10" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Scenario</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>Downward Tertiary Reserve</t>
-  </si>
-  <si>
-    <t>Flexibility</t>
   </si>
 </sst>
 </file>
@@ -999,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A521270-D550-4925-90B2-02907212BF13}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,14 +1045,6 @@
       </c>
       <c r="B5" s="4">
         <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.01</v>
       </c>
     </row>
   </sheetData>
